--- a/data-modeling/src/test/resources/ods-template.xlsx
+++ b/data-modeling/src/test/resources/ods-template.xlsx
@@ -74,7 +74,7 @@
     <t>hive</t>
   </si>
   <si>
-    <t>1 = 1</t>
+    <t>product_count= 1</t>
   </si>
   <si>
     <t>incremental</t>
@@ -98,7 +98,7 @@
     <t>t_product</t>
   </si>
   <si>
-    <t>a=1 and (c= 'sss' or d= false)</t>
+    <t>version=1 and (name= 'sss' or status= false)</t>
   </si>
   <si>
     <t>source_column</t>
